--- a/models/code/criterionVar/Criterionx/vpFits.xlsx
+++ b/models/code/criterionVar/Criterionx/vpFits.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="12">
   <si>
     <t>[]</t>
   </si>
@@ -394,8 +396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K1" sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,4 +1140,1504 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>752.63501030016505</v>
+      </c>
+      <c r="B2">
+        <v>1554.09457075766</v>
+      </c>
+      <c r="C2">
+        <v>2.9750802496647499</v>
+      </c>
+      <c r="D2">
+        <v>-0.32207275520933198</v>
+      </c>
+      <c r="E2">
+        <v>2.0381173358488698</v>
+      </c>
+      <c r="F2">
+        <v>0.88637431020859503</v>
+      </c>
+      <c r="G2">
+        <v>3.4940920454677902</v>
+      </c>
+      <c r="H2">
+        <v>3.1937671714634401</v>
+      </c>
+      <c r="I2">
+        <v>1.5881688721357501</v>
+      </c>
+      <c r="J2">
+        <v>0.116800040863246</v>
+      </c>
+      <c r="K2">
+        <v>1.4516076636808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1131.04702638043</v>
+      </c>
+      <c r="B3">
+        <v>2318.7680366402601</v>
+      </c>
+      <c r="C3">
+        <v>1.53156022967828</v>
+      </c>
+      <c r="D3">
+        <v>-0.271011287757568</v>
+      </c>
+      <c r="E3">
+        <v>1.69023734130861</v>
+      </c>
+      <c r="F3">
+        <v>0.138831207352763</v>
+      </c>
+      <c r="G3">
+        <v>0.74972014827321798</v>
+      </c>
+      <c r="H3">
+        <v>2.23128648159732E-2</v>
+      </c>
+      <c r="I3">
+        <v>2.1652158162361999</v>
+      </c>
+      <c r="J3">
+        <v>0.179063488895922</v>
+      </c>
+      <c r="K3">
+        <v>1.6915857835794299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1001.72012763997</v>
+      </c>
+      <c r="B4">
+        <v>2059.2630749346399</v>
+      </c>
+      <c r="C4">
+        <v>0.951885825801704</v>
+      </c>
+      <c r="D4">
+        <v>-0.103106026435704</v>
+      </c>
+      <c r="E4">
+        <v>1.1710144919329699</v>
+      </c>
+      <c r="F4">
+        <v>5.4483683406505098E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.71817939409909004</v>
+      </c>
+      <c r="H4">
+        <v>0.72658628342134801</v>
+      </c>
+      <c r="I4">
+        <v>1.41264598999296</v>
+      </c>
+      <c r="J4">
+        <v>7.2150560367553298E-3</v>
+      </c>
+      <c r="K4">
+        <v>0.696565664710173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1000.92125202622</v>
+      </c>
+      <c r="B5">
+        <v>2058.2643706057902</v>
+      </c>
+      <c r="C5">
+        <v>1.95502597980306</v>
+      </c>
+      <c r="D5">
+        <v>-6.7145194802880406E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.15498019695075</v>
+      </c>
+      <c r="F5">
+        <v>-7.94109279433374E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.6866742407220201</v>
+      </c>
+      <c r="H5">
+        <v>1.3632792187505001</v>
+      </c>
+      <c r="I5">
+        <v>1.8898112108577101</v>
+      </c>
+      <c r="J5">
+        <v>0.17906014815552801</v>
+      </c>
+      <c r="K5">
+        <v>1.4597011209341699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1128.99150637968</v>
+      </c>
+      <c r="B6">
+        <v>2314.52341348142</v>
+      </c>
+      <c r="C6">
+        <v>1.36322934154816</v>
+      </c>
+      <c r="D6">
+        <v>-4.6912329197541097E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.68698331440293</v>
+      </c>
+      <c r="F6">
+        <v>0.182916362808142</v>
+      </c>
+      <c r="G6">
+        <v>1.1537776640626101</v>
+      </c>
+      <c r="H6">
+        <v>0.87431581475876297</v>
+      </c>
+      <c r="I6">
+        <v>1.9401451032113699</v>
+      </c>
+      <c r="J6">
+        <v>0.115914004337779</v>
+      </c>
+      <c r="K6">
+        <v>1.26753477416067</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>905.55139028811902</v>
+      </c>
+      <c r="B7">
+        <v>1866.79715768398</v>
+      </c>
+      <c r="C7">
+        <v>0.22042461220618001</v>
+      </c>
+      <c r="D7">
+        <v>-0.17225713853491401</v>
+      </c>
+      <c r="E7">
+        <v>0.45676319566361001</v>
+      </c>
+      <c r="F7">
+        <v>0.207222121605452</v>
+      </c>
+      <c r="G7">
+        <v>1.6911648115148501</v>
+      </c>
+      <c r="H7">
+        <v>2.44109934679872E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.95454280843547301</v>
+      </c>
+      <c r="J7">
+        <v>0.26690012770622001</v>
+      </c>
+      <c r="K7">
+        <v>0.413349868187463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1665.72015414116</v>
+      </c>
+      <c r="B8">
+        <v>3387.5676345941501</v>
+      </c>
+      <c r="C8">
+        <v>1.58922632388527</v>
+      </c>
+      <c r="D8">
+        <v>5.08016187632069E-2</v>
+      </c>
+      <c r="E8">
+        <v>2.0318556813724098</v>
+      </c>
+      <c r="F8">
+        <v>8.5558624931472205E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.59028019462518699</v>
+      </c>
+      <c r="H8">
+        <v>1.3310216308310101</v>
+      </c>
+      <c r="I8">
+        <v>0.97788385823111801</v>
+      </c>
+      <c r="J8">
+        <v>0.290492807281445</v>
+      </c>
+      <c r="K8">
+        <v>0.92072337741948995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>698.79585006600905</v>
+      </c>
+      <c r="B9">
+        <v>1454.2490941449701</v>
+      </c>
+      <c r="C9">
+        <v>1.9580186892318201</v>
+      </c>
+      <c r="D9">
+        <v>3.7143244464413298E-3</v>
+      </c>
+      <c r="E9">
+        <v>2.42395818200582</v>
+      </c>
+      <c r="F9">
+        <v>-3.0908471263704499E-2</v>
+      </c>
+      <c r="G9">
+        <v>9.2969239597499698E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.11911163418718E-4</v>
+      </c>
+      <c r="I9">
+        <v>1.5295036255521799</v>
+      </c>
+      <c r="J9">
+        <v>0.28350115670129999</v>
+      </c>
+      <c r="K9">
+        <v>1.30081184513434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>604.07935346599004</v>
+      </c>
+      <c r="B10">
+        <v>1264.71591438162</v>
+      </c>
+      <c r="C10">
+        <v>-7.0086137309135793E-2</v>
+      </c>
+      <c r="D10">
+        <v>0.45815003436194801</v>
+      </c>
+      <c r="E10">
+        <v>0.140399290017242</v>
+      </c>
+      <c r="F10">
+        <v>1.2976209776883201</v>
+      </c>
+      <c r="G10">
+        <v>3.9962935985776098</v>
+      </c>
+      <c r="H10">
+        <v>3.7513448166250898</v>
+      </c>
+      <c r="I10">
+        <v>2.2559401081223198</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8.51528372849062E-6</v>
+      </c>
+      <c r="K10">
+        <v>2.9993822834444801</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1062.2097384972001</v>
+      </c>
+      <c r="B11">
+        <v>2181.0768710073698</v>
+      </c>
+      <c r="C11">
+        <v>2.1945673178257299</v>
+      </c>
+      <c r="D11">
+        <v>-4.7706058621145603E-2</v>
+      </c>
+      <c r="E11">
+        <v>2.3644613416465701</v>
+      </c>
+      <c r="F11">
+        <v>0.135626040065285</v>
+      </c>
+      <c r="G11">
+        <v>0.47251604616624199</v>
+      </c>
+      <c r="H11">
+        <v>0.40647225018856198</v>
+      </c>
+      <c r="I11">
+        <v>3.7475517110933798</v>
+      </c>
+      <c r="J11">
+        <v>6.8047742451472E-4</v>
+      </c>
+      <c r="K11">
+        <v>2.4033067136603599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>988.505424341913</v>
+      </c>
+      <c r="B12">
+        <v>2033.27798363232</v>
+      </c>
+      <c r="C12">
+        <v>0.91879978272160201</v>
+      </c>
+      <c r="D12">
+        <v>0.66600602771586603</v>
+      </c>
+      <c r="E12">
+        <v>1.39520335605159</v>
+      </c>
+      <c r="F12">
+        <v>0.264734095288366</v>
+      </c>
+      <c r="G12">
+        <v>1.6524219186053599</v>
+      </c>
+      <c r="H12">
+        <v>1.3370377235859501</v>
+      </c>
+      <c r="I12">
+        <v>1.3334254524381199</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8.1245630346409299E-10</v>
+      </c>
+      <c r="K12">
+        <v>0.83052051092619195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>827.98300514331902</v>
+      </c>
+      <c r="B13">
+        <v>1712.4558016907099</v>
+      </c>
+      <c r="C13">
+        <v>1.64995993184643</v>
+      </c>
+      <c r="D13">
+        <v>4.5621876456273004E-3</v>
+      </c>
+      <c r="E13">
+        <v>1.1139000536159001</v>
+      </c>
+      <c r="F13">
+        <v>-0.117663067381591</v>
+      </c>
+      <c r="G13">
+        <v>4.0109904622749798E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.33062713663519999</v>
+      </c>
+      <c r="I13">
+        <v>1.3950495787456301</v>
+      </c>
+      <c r="J13">
+        <v>0.19808642432161599</v>
+      </c>
+      <c r="K13">
+        <v>0.39356021145437398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1691.02119409595</v>
+      </c>
+      <c r="B14">
+        <v>3437.5311488799798</v>
+      </c>
+      <c r="C14">
+        <v>0.15117390061251801</v>
+      </c>
+      <c r="D14">
+        <v>0.25911394815829097</v>
+      </c>
+      <c r="E14">
+        <v>4.6516508399972803E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.27667241111004898</v>
+      </c>
+      <c r="G14">
+        <v>1.9195299312175</v>
+      </c>
+      <c r="H14">
+        <v>2.4304515559626001</v>
+      </c>
+      <c r="I14">
+        <v>0.68777564531990998</v>
+      </c>
+      <c r="J14">
+        <v>6.9001206363578796E-3</v>
+      </c>
+      <c r="K14">
+        <v>2.8159430321261301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1732.4984611981999</v>
+      </c>
+      <c r="B16">
+        <v>3521.29867277218</v>
+      </c>
+      <c r="C16">
+        <v>0.44631855291019601</v>
+      </c>
+      <c r="D16">
+        <v>0.17638524768689301</v>
+      </c>
+      <c r="E16">
+        <v>1.2391217601186899</v>
+      </c>
+      <c r="F16">
+        <v>0.109753686871086</v>
+      </c>
+      <c r="G16">
+        <v>2.5408999610288601</v>
+      </c>
+      <c r="H16">
+        <v>0.180024055101866</v>
+      </c>
+      <c r="I16">
+        <v>0.64647107526718695</v>
+      </c>
+      <c r="J16">
+        <v>0.224713882112548</v>
+      </c>
+      <c r="K16">
+        <v>2.82444688569942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1321.3016366935101</v>
+      </c>
+      <c r="B17">
+        <v>2698.3895818354599</v>
+      </c>
+      <c r="C17">
+        <v>2.3056760020126599</v>
+      </c>
+      <c r="D17">
+        <v>-0.212528176573964</v>
+      </c>
+      <c r="E17">
+        <v>0.339141401553267</v>
+      </c>
+      <c r="F17">
+        <v>0.21394206302968899</v>
+      </c>
+      <c r="G17">
+        <v>1.4630434747295999</v>
+      </c>
+      <c r="H17">
+        <v>1.7406254539182899</v>
+      </c>
+      <c r="I17">
+        <v>1.76015170140046</v>
+      </c>
+      <c r="J17">
+        <v>0.41700000369455797</v>
+      </c>
+      <c r="K17">
+        <v>2.4308984809822101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1114.78036546575</v>
+      </c>
+      <c r="B18">
+        <v>2283.9444264346298</v>
+      </c>
+      <c r="C18">
+        <v>0.67808301990892705</v>
+      </c>
+      <c r="D18">
+        <v>-6.5839188394666501E-2</v>
+      </c>
+      <c r="E18">
+        <v>-0.38580194571072002</v>
+      </c>
+      <c r="F18">
+        <v>-0.41609115091370402</v>
+      </c>
+      <c r="G18">
+        <v>0.84535305561717999</v>
+      </c>
+      <c r="H18">
+        <v>1.1052047012483699</v>
+      </c>
+      <c r="I18">
+        <v>1.4114257441647799</v>
+      </c>
+      <c r="J18">
+        <v>0.18350021434615499</v>
+      </c>
+      <c r="K18">
+        <v>1.08579622695906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1077.1167286756599</v>
+      </c>
+      <c r="B19">
+        <v>2210.74015016881</v>
+      </c>
+      <c r="C19">
+        <v>1.0410312825076999</v>
+      </c>
+      <c r="D19">
+        <v>0.16097062647386301</v>
+      </c>
+      <c r="E19">
+        <v>1.2136836439911001</v>
+      </c>
+      <c r="F19">
+        <v>0.44676049758983699</v>
+      </c>
+      <c r="G19" s="1">
+        <v>7.2075184594862403E-7</v>
+      </c>
+      <c r="H19">
+        <v>0.61892931694313402</v>
+      </c>
+      <c r="I19">
+        <v>1.7185962650091999</v>
+      </c>
+      <c r="J19">
+        <v>0.16601070180126801</v>
+      </c>
+      <c r="K19">
+        <v>0.102374588459993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1576.13274220067</v>
+      </c>
+      <c r="B20">
+        <v>3207.9042485617802</v>
+      </c>
+      <c r="C20">
+        <v>1.07647897457645</v>
+      </c>
+      <c r="D20">
+        <v>0.479209482895043</v>
+      </c>
+      <c r="E20">
+        <v>1.1134530806720599</v>
+      </c>
+      <c r="F20">
+        <v>0.3803966102161</v>
+      </c>
+      <c r="G20">
+        <v>2.7819219289277499</v>
+      </c>
+      <c r="H20">
+        <v>2.96789449694817</v>
+      </c>
+      <c r="I20">
+        <v>1.35537345586041</v>
+      </c>
+      <c r="J20">
+        <v>0.10010000543214</v>
+      </c>
+      <c r="K20">
+        <v>1.5283619807714199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1459.3302815588399</v>
+      </c>
+      <c r="B21">
+        <v>2974.6100180274502</v>
+      </c>
+      <c r="C21">
+        <v>0.10575071468734699</v>
+      </c>
+      <c r="D21">
+        <v>-7.5382587351699601E-2</v>
+      </c>
+      <c r="E21">
+        <v>1.8424046012897599</v>
+      </c>
+      <c r="F21">
+        <v>1.13354018469031E-2</v>
+      </c>
+      <c r="G21">
+        <v>1.43930193708631</v>
+      </c>
+      <c r="H21">
+        <v>2.0119045498811801</v>
+      </c>
+      <c r="I21">
+        <v>1.0468216999689799</v>
+      </c>
+      <c r="J21">
+        <v>0.15010000917270599</v>
+      </c>
+      <c r="K21">
+        <v>0.96680853463169403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>752.63501030016505</v>
+      </c>
+      <c r="B2">
+        <v>1554.09457075766</v>
+      </c>
+      <c r="C2">
+        <v>2.9750802496647499</v>
+      </c>
+      <c r="D2">
+        <v>-0.32207275520933198</v>
+      </c>
+      <c r="E2">
+        <v>2.0381173358488698</v>
+      </c>
+      <c r="F2">
+        <v>0.88637431020859503</v>
+      </c>
+      <c r="G2">
+        <v>3.4940920454677902</v>
+      </c>
+      <c r="H2">
+        <v>3.1937671714634401</v>
+      </c>
+      <c r="I2">
+        <v>1.5881688721357501</v>
+      </c>
+      <c r="J2">
+        <v>0.116800040863246</v>
+      </c>
+      <c r="K2">
+        <v>1.4516076636808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1131.04702638043</v>
+      </c>
+      <c r="B3">
+        <v>2318.7680366402601</v>
+      </c>
+      <c r="C3">
+        <v>1.53156022967828</v>
+      </c>
+      <c r="D3">
+        <v>-0.271011287757568</v>
+      </c>
+      <c r="E3">
+        <v>1.69023734130861</v>
+      </c>
+      <c r="F3">
+        <v>0.138831207352763</v>
+      </c>
+      <c r="G3">
+        <v>0.74972014827321798</v>
+      </c>
+      <c r="H3">
+        <v>2.23128648159732E-2</v>
+      </c>
+      <c r="I3">
+        <v>2.1652158162361999</v>
+      </c>
+      <c r="J3">
+        <v>0.179063488895922</v>
+      </c>
+      <c r="K3">
+        <v>1.6915857835794299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1001.72012763997</v>
+      </c>
+      <c r="B4">
+        <v>2059.2630749346399</v>
+      </c>
+      <c r="C4">
+        <v>0.951885825801704</v>
+      </c>
+      <c r="D4">
+        <v>-0.103106026435704</v>
+      </c>
+      <c r="E4">
+        <v>1.1710144919329699</v>
+      </c>
+      <c r="F4">
+        <v>5.4483683406505098E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.71817939409909004</v>
+      </c>
+      <c r="H4">
+        <v>0.72658628342134801</v>
+      </c>
+      <c r="I4">
+        <v>1.41264598999296</v>
+      </c>
+      <c r="J4">
+        <v>7.2150560367553298E-3</v>
+      </c>
+      <c r="K4">
+        <v>0.696565664710173</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1000.92125202622</v>
+      </c>
+      <c r="B5">
+        <v>2058.2643706057902</v>
+      </c>
+      <c r="C5">
+        <v>1.95502597980306</v>
+      </c>
+      <c r="D5">
+        <v>-6.7145194802880406E-2</v>
+      </c>
+      <c r="E5">
+        <v>2.15498019695075</v>
+      </c>
+      <c r="F5">
+        <v>-7.94109279433374E-2</v>
+      </c>
+      <c r="G5">
+        <v>1.6866742407220201</v>
+      </c>
+      <c r="H5">
+        <v>1.3632792187505001</v>
+      </c>
+      <c r="I5">
+        <v>1.8898112108577101</v>
+      </c>
+      <c r="J5">
+        <v>0.17906014815552801</v>
+      </c>
+      <c r="K5">
+        <v>1.4597011209341699</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1128.99150637968</v>
+      </c>
+      <c r="B6">
+        <v>2314.52341348142</v>
+      </c>
+      <c r="C6">
+        <v>1.36322934154816</v>
+      </c>
+      <c r="D6">
+        <v>-4.6912329197541097E-2</v>
+      </c>
+      <c r="E6">
+        <v>1.68698331440293</v>
+      </c>
+      <c r="F6">
+        <v>0.182916362808142</v>
+      </c>
+      <c r="G6">
+        <v>1.1537776640626101</v>
+      </c>
+      <c r="H6">
+        <v>0.87431581475876297</v>
+      </c>
+      <c r="I6">
+        <v>1.9401451032113699</v>
+      </c>
+      <c r="J6">
+        <v>0.115914004337779</v>
+      </c>
+      <c r="K6">
+        <v>1.26753477416067</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>905.55139028811902</v>
+      </c>
+      <c r="B7">
+        <v>1866.79715768398</v>
+      </c>
+      <c r="C7">
+        <v>0.22042461220618001</v>
+      </c>
+      <c r="D7">
+        <v>-0.17225713853491401</v>
+      </c>
+      <c r="E7">
+        <v>0.45676319566361001</v>
+      </c>
+      <c r="F7">
+        <v>0.207222121605452</v>
+      </c>
+      <c r="G7">
+        <v>1.6911648115148501</v>
+      </c>
+      <c r="H7">
+        <v>2.44109934679872E-2</v>
+      </c>
+      <c r="I7">
+        <v>0.95454280843547301</v>
+      </c>
+      <c r="J7">
+        <v>0.26690012770622001</v>
+      </c>
+      <c r="K7">
+        <v>0.413349868187463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1665.72015414116</v>
+      </c>
+      <c r="B8">
+        <v>3387.5676345941501</v>
+      </c>
+      <c r="C8">
+        <v>1.58922632388527</v>
+      </c>
+      <c r="D8">
+        <v>5.08016187632069E-2</v>
+      </c>
+      <c r="E8">
+        <v>2.0318556813724098</v>
+      </c>
+      <c r="F8">
+        <v>8.5558624931472205E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.59028019462518699</v>
+      </c>
+      <c r="H8">
+        <v>1.3310216308310101</v>
+      </c>
+      <c r="I8">
+        <v>0.97788385823111801</v>
+      </c>
+      <c r="J8">
+        <v>0.290492807281445</v>
+      </c>
+      <c r="K8">
+        <v>0.92072337741948995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>698.79585006600905</v>
+      </c>
+      <c r="B9">
+        <v>1454.2490941449701</v>
+      </c>
+      <c r="C9">
+        <v>1.9580186892318201</v>
+      </c>
+      <c r="D9">
+        <v>3.7143244464413298E-3</v>
+      </c>
+      <c r="E9">
+        <v>2.42395818200582</v>
+      </c>
+      <c r="F9">
+        <v>-3.0908471263704499E-2</v>
+      </c>
+      <c r="G9">
+        <v>9.2969239597499698E-2</v>
+      </c>
+      <c r="H9">
+        <v>1.11911163418718E-4</v>
+      </c>
+      <c r="I9">
+        <v>1.5295036255521799</v>
+      </c>
+      <c r="J9">
+        <v>0.28350115670129999</v>
+      </c>
+      <c r="K9">
+        <v>1.30081184513434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1551.5499355117499</v>
+      </c>
+      <c r="B10">
+        <v>3159.6570784731498</v>
+      </c>
+      <c r="C10">
+        <v>0.73541710769616697</v>
+      </c>
+      <c r="D10">
+        <v>-3.0213756573708499E-2</v>
+      </c>
+      <c r="E10">
+        <v>1.6541493507813601</v>
+      </c>
+      <c r="F10">
+        <v>0.46763247694015803</v>
+      </c>
+      <c r="G10">
+        <v>3.4789798738026598</v>
+      </c>
+      <c r="H10">
+        <v>3.5082051008452999</v>
+      </c>
+      <c r="I10">
+        <v>1.7536476384206501</v>
+      </c>
+      <c r="J10">
+        <v>0.15010023841680101</v>
+      </c>
+      <c r="K10">
+        <v>2.0643725418726402</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1062.2097384972001</v>
+      </c>
+      <c r="B11">
+        <v>2181.0768710073698</v>
+      </c>
+      <c r="C11">
+        <v>2.1945673178257299</v>
+      </c>
+      <c r="D11">
+        <v>-4.7706058621145603E-2</v>
+      </c>
+      <c r="E11">
+        <v>2.3644613416465701</v>
+      </c>
+      <c r="F11">
+        <v>0.135626040065285</v>
+      </c>
+      <c r="G11">
+        <v>0.47251604616624199</v>
+      </c>
+      <c r="H11">
+        <v>0.40647225018856198</v>
+      </c>
+      <c r="I11">
+        <v>3.7475517110933798</v>
+      </c>
+      <c r="J11">
+        <v>6.8047742451472E-4</v>
+      </c>
+      <c r="K11">
+        <v>2.4033067136603599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>988.505424341913</v>
+      </c>
+      <c r="B12">
+        <v>2033.27798363232</v>
+      </c>
+      <c r="C12">
+        <v>0.91879978272160201</v>
+      </c>
+      <c r="D12">
+        <v>0.66600602771586603</v>
+      </c>
+      <c r="E12">
+        <v>1.39520335605159</v>
+      </c>
+      <c r="F12">
+        <v>0.264734095288366</v>
+      </c>
+      <c r="G12">
+        <v>1.6524219186053599</v>
+      </c>
+      <c r="H12">
+        <v>1.3370377235859501</v>
+      </c>
+      <c r="I12">
+        <v>1.3334254524381199</v>
+      </c>
+      <c r="J12" s="1">
+        <v>8.1245630346409299E-10</v>
+      </c>
+      <c r="K12">
+        <v>0.83052051092619195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>827.98300514331902</v>
+      </c>
+      <c r="B13">
+        <v>1712.4558016907099</v>
+      </c>
+      <c r="C13">
+        <v>1.64995993184643</v>
+      </c>
+      <c r="D13">
+        <v>4.5621876456273004E-3</v>
+      </c>
+      <c r="E13">
+        <v>1.1139000536159001</v>
+      </c>
+      <c r="F13">
+        <v>-0.117663067381591</v>
+      </c>
+      <c r="G13">
+        <v>4.0109904622749798E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.33062713663519999</v>
+      </c>
+      <c r="I13">
+        <v>1.3950495787456301</v>
+      </c>
+      <c r="J13">
+        <v>0.19808642432161599</v>
+      </c>
+      <c r="K13">
+        <v>0.39356021145437398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1691.02119409595</v>
+      </c>
+      <c r="B14">
+        <v>3437.5311488799798</v>
+      </c>
+      <c r="C14">
+        <v>0.15117390061251801</v>
+      </c>
+      <c r="D14">
+        <v>0.25911394815829097</v>
+      </c>
+      <c r="E14">
+        <v>4.6516508399972803E-2</v>
+      </c>
+      <c r="F14">
+        <v>0.27667241111004898</v>
+      </c>
+      <c r="G14">
+        <v>1.9195299312175</v>
+      </c>
+      <c r="H14">
+        <v>2.4304515559626001</v>
+      </c>
+      <c r="I14">
+        <v>0.68777564531990998</v>
+      </c>
+      <c r="J14">
+        <v>6.9001206363578796E-3</v>
+      </c>
+      <c r="K14">
+        <v>2.8159430321261301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1732.4984611981999</v>
+      </c>
+      <c r="B16">
+        <v>3521.29867277218</v>
+      </c>
+      <c r="C16">
+        <v>0.44631855291019601</v>
+      </c>
+      <c r="D16">
+        <v>0.17638524768689301</v>
+      </c>
+      <c r="E16">
+        <v>1.2391217601186899</v>
+      </c>
+      <c r="F16">
+        <v>0.109753686871086</v>
+      </c>
+      <c r="G16">
+        <v>2.5408999610288601</v>
+      </c>
+      <c r="H16">
+        <v>0.180024055101866</v>
+      </c>
+      <c r="I16">
+        <v>0.64647107526718695</v>
+      </c>
+      <c r="J16">
+        <v>0.224713882112548</v>
+      </c>
+      <c r="K16">
+        <v>2.82444688569942</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1321.3016366935101</v>
+      </c>
+      <c r="B17">
+        <v>2698.3895818354599</v>
+      </c>
+      <c r="C17">
+        <v>2.3056760020126599</v>
+      </c>
+      <c r="D17">
+        <v>-0.212528176573964</v>
+      </c>
+      <c r="E17">
+        <v>0.339141401553267</v>
+      </c>
+      <c r="F17">
+        <v>0.21394206302968899</v>
+      </c>
+      <c r="G17">
+        <v>1.4630434747295999</v>
+      </c>
+      <c r="H17">
+        <v>1.7406254539182899</v>
+      </c>
+      <c r="I17">
+        <v>1.76015170140046</v>
+      </c>
+      <c r="J17">
+        <v>0.41700000369455797</v>
+      </c>
+      <c r="K17">
+        <v>2.4308984809822101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1114.78036546575</v>
+      </c>
+      <c r="B18">
+        <v>2283.9444264346298</v>
+      </c>
+      <c r="C18">
+        <v>0.67808301990892705</v>
+      </c>
+      <c r="D18">
+        <v>-6.5839188394666501E-2</v>
+      </c>
+      <c r="E18">
+        <v>-0.38580194571072002</v>
+      </c>
+      <c r="F18">
+        <v>-0.41609115091370402</v>
+      </c>
+      <c r="G18">
+        <v>0.84535305561717999</v>
+      </c>
+      <c r="H18">
+        <v>1.1052047012483699</v>
+      </c>
+      <c r="I18">
+        <v>1.4114257441647799</v>
+      </c>
+      <c r="J18">
+        <v>0.18350021434615499</v>
+      </c>
+      <c r="K18">
+        <v>1.08579622695906</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1077.1167286756599</v>
+      </c>
+      <c r="B19">
+        <v>2210.74015016881</v>
+      </c>
+      <c r="C19">
+        <v>1.0410312825076999</v>
+      </c>
+      <c r="D19">
+        <v>0.16097062647386301</v>
+      </c>
+      <c r="E19">
+        <v>1.2136836439911001</v>
+      </c>
+      <c r="F19">
+        <v>0.44676049758983699</v>
+      </c>
+      <c r="G19" s="1">
+        <v>7.2075184594862403E-7</v>
+      </c>
+      <c r="H19">
+        <v>0.61892931694313402</v>
+      </c>
+      <c r="I19">
+        <v>1.7185962650091999</v>
+      </c>
+      <c r="J19">
+        <v>0.16601070180126801</v>
+      </c>
+      <c r="K19">
+        <v>0.102374588459993</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1576.13274220067</v>
+      </c>
+      <c r="B20">
+        <v>3207.9042485617802</v>
+      </c>
+      <c r="C20">
+        <v>1.07647897457645</v>
+      </c>
+      <c r="D20">
+        <v>0.479209482895043</v>
+      </c>
+      <c r="E20">
+        <v>1.1134530806720599</v>
+      </c>
+      <c r="F20">
+        <v>0.3803966102161</v>
+      </c>
+      <c r="G20">
+        <v>2.7819219289277499</v>
+      </c>
+      <c r="H20">
+        <v>2.96789449694817</v>
+      </c>
+      <c r="I20">
+        <v>1.35537345586041</v>
+      </c>
+      <c r="J20">
+        <v>0.10010000543214</v>
+      </c>
+      <c r="K20">
+        <v>1.5283619807714199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1459.3302815588399</v>
+      </c>
+      <c r="B21">
+        <v>2974.6100180274502</v>
+      </c>
+      <c r="C21">
+        <v>0.10575071468734699</v>
+      </c>
+      <c r="D21">
+        <v>-7.5382587351699601E-2</v>
+      </c>
+      <c r="E21">
+        <v>1.8424046012897599</v>
+      </c>
+      <c r="F21">
+        <v>1.13354018469031E-2</v>
+      </c>
+      <c r="G21">
+        <v>1.43930193708631</v>
+      </c>
+      <c r="H21">
+        <v>2.0119045498811801</v>
+      </c>
+      <c r="I21">
+        <v>1.0468216999689799</v>
+      </c>
+      <c r="J21">
+        <v>0.15010000917270599</v>
+      </c>
+      <c r="K21">
+        <v>0.96680853463169403</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>